--- a/output/CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/output/CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -175,7 +175,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -194,7 +194,7 @@
     <t>ExplanationOfBenefit.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -210,7 +210,7 @@
     <t>ExplanationOfBenefit.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -229,7 +229,7 @@
     <t>ExplanationOfBenefit.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -261,7 +261,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -287,7 +287,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -309,7 +309,7 @@
     <t>ExplanationOfBenefit.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -331,7 +331,7 @@
     <t>ExplanationOfBenefit.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -383,7 +383,7 @@
     <t>ExplanationOfBenefit.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -467,7 +467,7 @@
     <t>ExplanationOfBenefit.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient]]}
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -489,7 +489,7 @@
     <t>ExplanationOfBenefit.billablePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -511,7 +511,7 @@
     <t>ExplanationOfBenefit.created</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -536,7 +536,7 @@
     <t>ExplanationOfBenefit.enterer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
@@ -558,7 +558,7 @@
     <t>ExplanationOfBenefit.insurer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -574,7 +574,7 @@
     <t>ExplanationOfBenefit.provider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
 </t>
   </si>
   <si>
@@ -657,7 +657,7 @@
     <t>ExplanationOfBenefit.related</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -680,7 +680,7 @@
     <t>ExplanationOfBenefit.related.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -738,7 +738,7 @@
     <t>ExplanationOfBenefit.related.claim</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Claim]]}
+    <t xml:space="preserve">Reference(Claim)
 </t>
   </si>
   <si>
@@ -784,7 +784,7 @@
     <t>ExplanationOfBenefit.prescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/VisionPrescription]]}
+    <t xml:space="preserve">Reference(MedicationRequest|VisionPrescription)
 </t>
   </si>
   <si>
@@ -800,7 +800,7 @@
     <t>ExplanationOfBenefit.originalPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest]]}
+    <t xml:space="preserve">Reference(MedicationRequest)
 </t>
   </si>
   <si>
@@ -861,7 +861,7 @@
     <t>ExplanationOfBenefit.payee.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -880,7 +880,7 @@
     <t>ExplanationOfBenefit.referral</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ServiceRequest]]}
+    <t xml:space="preserve">Reference(ServiceRequest)
 </t>
   </si>
   <si>
@@ -902,7 +902,7 @@
     <t>ExplanationOfBenefit.facility</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -939,7 +939,7 @@
     <t>ExplanationOfBenefit.claimResponse</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ClaimResponse]]}
+    <t xml:space="preserve">Reference(ClaimResponse)
 </t>
   </si>
   <si>
@@ -1033,7 +1033,7 @@
     <t>ExplanationOfBenefit.careTeam.sequence</t>
   </si>
   <si>
-    <t xml:space="preserve">positiveInt {[]} {[]}
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>
@@ -1064,7 +1064,7 @@
     <t>ExplanationOfBenefit.careTeam.responsible</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -1204,8 +1204,8 @@
     <t>ExplanationOfBenefit.supportingInfo.timing[x]</t>
   </si>
   <si>
-    <t>date {[]} {[]}
-Period {[]} {[]}</t>
+    <t>date
+Period</t>
   </si>
   <si>
     <t>When it occurred</t>
@@ -1217,8 +1217,8 @@
     <t>ExplanationOfBenefit.supportingInfo.value[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-string {[]} {[]}Quantity {[]} {[]}Attachment {[]} {[]}Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}</t>
+    <t>boolean
+stringQuantityAttachmentReference(Resource)</t>
   </si>
   <si>
     <t>Data to be provided</t>
@@ -1236,7 +1236,7 @@
     <t>ExplanationOfBenefit.supportingInfo.reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -1407,8 +1407,8 @@
     <t>ExplanationOfBenefit.diagnosis.diagnosis[x]</t>
   </si>
   <si>
-    <t>CodeableConcept {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition]]}</t>
+    <t>CodeableConcept
+Reference(Condition)</t>
   </si>
   <si>
     <t>Nature of illness or problem</t>
@@ -1546,8 +1546,8 @@
     <t>ExplanationOfBenefit.procedure.procedure[x]</t>
   </si>
   <si>
-    <t>CodeableConcept {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Procedure]]}</t>
+    <t>CodeableConcept
+Reference(Procedure)</t>
   </si>
   <si>
     <t>Specific clinical procedure</t>
@@ -1568,7 +1568,7 @@
     <t>ExplanationOfBenefit.procedure.udi</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Device]]}
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1638,7 +1638,7 @@
     <t>ExplanationOfBenefit.insurance.coverage</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Coverage]]}
+    <t xml:space="preserve">Reference(Coverage)
 </t>
   </si>
   <si>
@@ -1690,7 +1690,7 @@
     <t>ExplanationOfBenefit.accident.date</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -1727,8 +1727,8 @@
     <t>ExplanationOfBenefit.accident.location[x]</t>
   </si>
   <si>
-    <t>Address {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}</t>
+    <t>Address
+Reference(Location)</t>
   </si>
   <si>
     <t>Where the event occurred</t>
@@ -1942,8 +1942,8 @@
     <t>ExplanationOfBenefit.item.location[x]</t>
   </si>
   <si>
-    <t>CodeableConcept {[]} {[]}
-Address {[]} {[]}Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}</t>
+    <t>CodeableConcept
+AddressReference(Location)</t>
   </si>
   <si>
     <t>Place of service or where product was supplied</t>
@@ -1964,7 +1964,7 @@
     <t>ExplanationOfBenefit.item.quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1980,7 +1980,7 @@
     <t>ExplanationOfBenefit.item.unitPrice</t>
   </si>
   <si>
-    <t xml:space="preserve">Money {[]} {[]}
+    <t xml:space="preserve">Money
 </t>
   </si>
   <si>
@@ -1996,7 +1996,7 @@
     <t>ExplanationOfBenefit.item.factor</t>
   </si>
   <si>
-    <t xml:space="preserve">decimal {[]} {[]}
+    <t xml:space="preserve">decimal
 </t>
   </si>
   <si>
@@ -2069,7 +2069,7 @@
     <t>ExplanationOfBenefit.item.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -2706,7 +2706,7 @@
     <t>ExplanationOfBenefit.form</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -2971,8 +2971,8 @@
     <t>ExplanationOfBenefit.benefitBalance.financial.allowed[x]</t>
   </si>
   <si>
-    <t>unsignedInt {[]} {[]}
-string {[]} {[]}Money {[]} {[]}</t>
+    <t>unsignedInt
+stringMoney</t>
   </si>
   <si>
     <t>Benefits allowed</t>
@@ -2987,8 +2987,8 @@
     <t>ExplanationOfBenefit.benefitBalance.financial.used[x]</t>
   </si>
   <si>
-    <t>unsignedInt {[]} {[]}
-Money {[]} {[]}</t>
+    <t>unsignedInt
+Money</t>
   </si>
   <si>
     <t>Benefits used</t>
@@ -3050,67 +3050,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -3146,7 +3146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN357"/>
+  <dimension ref="A1:AM357"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/output/CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/output/CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -4675,7 +4675,7 @@
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>43</v>
@@ -5236,7 +5236,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>43</v>
@@ -5569,7 +5569,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>43</v>
@@ -5682,7 +5682,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>43</v>
@@ -5795,7 +5795,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>43</v>
@@ -6689,7 +6689,7 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>43</v>
@@ -6800,7 +6800,7 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>43</v>
@@ -23794,7 +23794,7 @@
         <v>41</v>
       </c>
       <c r="F185" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G185" t="s" s="2">
         <v>43</v>
@@ -25471,7 +25471,7 @@
         <v>41</v>
       </c>
       <c r="F200" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G200" t="s" s="2">
         <v>43</v>
@@ -27699,7 +27699,7 @@
         <v>41</v>
       </c>
       <c r="F220" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G220" t="s" s="2">
         <v>43</v>
@@ -28256,7 +28256,7 @@
         <v>41</v>
       </c>
       <c r="F225" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G225" t="s" s="2">
         <v>43</v>
@@ -28482,7 +28482,7 @@
         <v>41</v>
       </c>
       <c r="F227" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G227" t="s" s="2">
         <v>43</v>
@@ -29935,7 +29935,7 @@
         <v>41</v>
       </c>
       <c r="F240" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G240" t="s" s="2">
         <v>43</v>
@@ -33725,7 +33725,7 @@
         <v>41</v>
       </c>
       <c r="F274" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G274" t="s" s="2">
         <v>43</v>
@@ -40629,7 +40629,7 @@
         <v>41</v>
       </c>
       <c r="F336" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G336" t="s" s="2">
         <v>43</v>
@@ -40742,7 +40742,7 @@
         <v>41</v>
       </c>
       <c r="F337" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G337" t="s" s="2">
         <v>43</v>
@@ -41745,7 +41745,7 @@
         <v>41</v>
       </c>
       <c r="F346" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G346" t="s" s="2">
         <v>43</v>
@@ -41858,7 +41858,7 @@
         <v>41</v>
       </c>
       <c r="F347" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G347" t="s" s="2">
         <v>43</v>

--- a/output/CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
+++ b/output/CARIN-BB-ExplanationOfBenefit-Outpatient-Facility.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12856" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12846" uniqueCount="962">
   <si>
     <t>Path</t>
   </si>
@@ -1048,7 +1048,7 @@
     <t>ExplanationOfBenefit.careTeam.provider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/carin/StructureDefinition/carin-bb-practitionerrole)
 </t>
   </si>
   <si>
@@ -1266,12 +1266,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>The valuset used for additional information category codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/claim-informationcategory</t>
-  </si>
-  <si>
     <t>patientDischargeStatusCode</t>
   </si>
   <si>
@@ -2395,6 +2389,10 @@
   </si>
   <si>
     <t>ExplanationOfBenefit.addItem.provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+</t>
   </si>
   <si>
     <t>Authorized providers</t>
@@ -4327,7 +4325,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>107</v>
       </c>
@@ -4343,7 +4341,7 @@
         <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>43</v>
@@ -4997,7 +4995,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>157</v>
       </c>
@@ -5013,7 +5011,7 @@
         <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>43</v>
@@ -5895,7 +5893,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>210</v>
       </c>
@@ -5911,7 +5909,7 @@
         <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>43</v>
@@ -6900,7 +6898,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>255</v>
       </c>
@@ -6916,7 +6914,7 @@
         <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>43</v>
@@ -7356,7 +7354,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>50</v>
@@ -7467,7 +7465,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>50</v>
@@ -8466,7 +8464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>318</v>
       </c>
@@ -8482,7 +8480,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>43</v>
@@ -9132,7 +9130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>336</v>
       </c>
@@ -9148,7 +9146,7 @@
         <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>43</v>
@@ -9255,7 +9253,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>50</v>
@@ -9483,7 +9481,7 @@
         <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>43</v>
@@ -10133,7 +10131,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>374</v>
       </c>
@@ -10149,7 +10147,7 @@
         <v>50</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>43</v>
@@ -10246,7 +10244,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>380</v>
       </c>
@@ -10262,7 +10260,7 @@
         <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>43</v>
@@ -10355,7 +10353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>384</v>
       </c>
@@ -10371,7 +10369,7 @@
         <v>50</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>43</v>
@@ -10581,7 +10579,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>354</v>
       </c>
@@ -10599,7 +10597,7 @@
         <v>50</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>43</v>
@@ -11202,13 +11200,11 @@
         <v>43</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X72" s="2"/>
       <c r="Y72" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>43</v>
@@ -11253,7 +11249,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>374</v>
       </c>
@@ -11269,7 +11265,7 @@
         <v>50</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>43</v>
@@ -11366,7 +11362,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>380</v>
       </c>
@@ -11382,7 +11378,7 @@
         <v>50</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>43</v>
@@ -11475,7 +11471,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>384</v>
       </c>
@@ -11491,7 +11487,7 @@
         <v>50</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>43</v>
@@ -11701,12 +11697,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>43</v>
@@ -11719,7 +11715,7 @@
         <v>50</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>43</v>
@@ -12307,7 +12303,7 @@
         <v>43</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>43</v>
@@ -12322,13 +12318,11 @@
         <v>43</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>43</v>
@@ -12373,7 +12367,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>374</v>
       </c>
@@ -12389,7 +12383,7 @@
         <v>50</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>43</v>
@@ -12486,7 +12480,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>380</v>
       </c>
@@ -12502,7 +12496,7 @@
         <v>50</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>43</v>
@@ -12595,7 +12589,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>384</v>
       </c>
@@ -12611,7 +12605,7 @@
         <v>50</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>43</v>
@@ -12821,12 +12815,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>43</v>
@@ -12839,7 +12833,7 @@
         <v>50</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>43</v>
@@ -13427,7 +13421,7 @@
         <v>43</v>
       </c>
       <c r="R92" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="S92" t="s" s="2">
         <v>43</v>
@@ -13442,13 +13436,11 @@
         <v>43</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X92" s="2"/>
       <c r="Y92" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>43</v>
@@ -13493,7 +13485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>374</v>
       </c>
@@ -13509,7 +13501,7 @@
         <v>50</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>43</v>
@@ -13606,7 +13598,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>380</v>
       </c>
@@ -13622,7 +13614,7 @@
         <v>50</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>43</v>
@@ -13715,7 +13707,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
         <v>384</v>
       </c>
@@ -13731,7 +13723,7 @@
         <v>50</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>43</v>
@@ -13941,12 +13933,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>43</v>
@@ -13959,7 +13951,7 @@
         <v>50</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>43</v>
@@ -14547,7 +14539,7 @@
         <v>43</v>
       </c>
       <c r="R102" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>43</v>
@@ -14562,13 +14554,11 @@
         <v>43</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X102" s="2"/>
       <c r="Y102" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>43</v>
@@ -14613,7 +14603,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
         <v>374</v>
       </c>
@@ -14629,7 +14619,7 @@
         <v>50</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>43</v>
@@ -14679,7 +14669,7 @@
       </c>
       <c r="X103" s="2"/>
       <c r="Y103" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>43</v>
@@ -14724,7 +14714,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>380</v>
       </c>
@@ -14740,7 +14730,7 @@
         <v>50</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>43</v>
@@ -14833,7 +14823,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
         <v>384</v>
       </c>
@@ -14849,7 +14839,7 @@
         <v>50</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>43</v>
@@ -15059,12 +15049,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>43</v>
@@ -15077,7 +15067,7 @@
         <v>50</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>43</v>
@@ -15665,7 +15655,7 @@
         <v>43</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>43</v>
@@ -15680,13 +15670,11 @@
         <v>43</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X112" s="2"/>
       <c r="Y112" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>43</v>
@@ -15731,7 +15719,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>374</v>
       </c>
@@ -15747,7 +15735,7 @@
         <v>50</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>43</v>
@@ -15844,7 +15832,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
         <v>380</v>
       </c>
@@ -15860,7 +15848,7 @@
         <v>50</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>43</v>
@@ -15953,7 +15941,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>384</v>
       </c>
@@ -15969,7 +15957,7 @@
         <v>50</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>43</v>
@@ -16179,12 +16167,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>43</v>
@@ -16197,7 +16185,7 @@
         <v>50</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>43</v>
@@ -16785,7 +16773,7 @@
         <v>43</v>
       </c>
       <c r="R122" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>43</v>
@@ -16800,13 +16788,11 @@
         <v>43</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X122" s="2"/>
       <c r="Y122" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>43</v>
@@ -16851,7 +16837,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
         <v>374</v>
       </c>
@@ -16867,7 +16853,7 @@
         <v>50</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>43</v>
@@ -16964,7 +16950,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
         <v>380</v>
       </c>
@@ -16980,7 +16966,7 @@
         <v>50</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>43</v>
@@ -17073,7 +17059,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" hidden="true">
+    <row r="125">
       <c r="A125" t="s" s="2">
         <v>384</v>
       </c>
@@ -17089,7 +17075,7 @@
         <v>50</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>43</v>
@@ -17299,12 +17285,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" hidden="true">
+    <row r="127">
       <c r="A127" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C127" t="s" s="2">
         <v>43</v>
@@ -17317,7 +17303,7 @@
         <v>50</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>43</v>
@@ -17905,7 +17891,7 @@
         <v>43</v>
       </c>
       <c r="R132" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>43</v>
@@ -17920,13 +17906,11 @@
         <v>43</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X132" s="2"/>
       <c r="Y132" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>43</v>
@@ -17971,7 +17955,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
         <v>374</v>
       </c>
@@ -17987,7 +17971,7 @@
         <v>50</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>43</v>
@@ -18084,7 +18068,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
         <v>380</v>
       </c>
@@ -18100,7 +18084,7 @@
         <v>50</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>43</v>
@@ -18193,7 +18177,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" hidden="true">
+    <row r="135">
       <c r="A135" t="s" s="2">
         <v>384</v>
       </c>
@@ -18209,7 +18193,7 @@
         <v>50</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>43</v>
@@ -18419,12 +18403,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" hidden="true">
+    <row r="137">
       <c r="A137" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>43</v>
@@ -18437,7 +18421,7 @@
         <v>50</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>43</v>
@@ -19025,7 +19009,7 @@
         <v>43</v>
       </c>
       <c r="R142" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="S142" t="s" s="2">
         <v>43</v>
@@ -19040,13 +19024,11 @@
         <v>43</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X142" s="2"/>
       <c r="Y142" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>43</v>
@@ -19091,7 +19073,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="143" hidden="true">
+    <row r="143">
       <c r="A143" t="s" s="2">
         <v>374</v>
       </c>
@@ -19107,7 +19089,7 @@
         <v>50</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>43</v>
@@ -19204,7 +19186,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="144" hidden="true">
+    <row r="144">
       <c r="A144" t="s" s="2">
         <v>380</v>
       </c>
@@ -19220,7 +19202,7 @@
         <v>50</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>43</v>
@@ -19313,7 +19295,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" hidden="true">
+    <row r="145">
       <c r="A145" t="s" s="2">
         <v>384</v>
       </c>
@@ -19329,7 +19311,7 @@
         <v>50</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>43</v>
@@ -19539,12 +19521,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="147" hidden="true">
+    <row r="147">
       <c r="A147" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C147" t="s" s="2">
         <v>43</v>
@@ -19557,7 +19539,7 @@
         <v>50</v>
       </c>
       <c r="G147" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>43</v>
@@ -20145,7 +20127,7 @@
         <v>43</v>
       </c>
       <c r="R152" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="S152" t="s" s="2">
         <v>43</v>
@@ -20160,13 +20142,11 @@
         <v>43</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X152" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X152" s="2"/>
       <c r="Y152" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>43</v>
@@ -20211,7 +20191,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="153" hidden="true">
+    <row r="153">
       <c r="A153" t="s" s="2">
         <v>374</v>
       </c>
@@ -20227,7 +20207,7 @@
         <v>50</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>43</v>
@@ -20324,7 +20304,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="154" hidden="true">
+    <row r="154">
       <c r="A154" t="s" s="2">
         <v>380</v>
       </c>
@@ -20340,7 +20320,7 @@
         <v>50</v>
       </c>
       <c r="G154" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H154" t="s" s="2">
         <v>43</v>
@@ -20433,7 +20413,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="155" hidden="true">
+    <row r="155">
       <c r="A155" t="s" s="2">
         <v>384</v>
       </c>
@@ -20449,7 +20429,7 @@
         <v>50</v>
       </c>
       <c r="G155" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H155" t="s" s="2">
         <v>43</v>
@@ -20659,12 +20639,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="157" hidden="true">
+    <row r="157">
       <c r="A157" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C157" t="s" s="2">
         <v>43</v>
@@ -20677,7 +20657,7 @@
         <v>50</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>43</v>
@@ -21265,7 +21245,7 @@
         <v>43</v>
       </c>
       <c r="R162" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="S162" t="s" s="2">
         <v>43</v>
@@ -21280,13 +21260,11 @@
         <v>43</v>
       </c>
       <c r="W162" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X162" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X162" s="2"/>
       <c r="Y162" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>43</v>
@@ -21331,7 +21309,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" hidden="true">
+    <row r="163">
       <c r="A163" t="s" s="2">
         <v>374</v>
       </c>
@@ -21347,7 +21325,7 @@
         <v>50</v>
       </c>
       <c r="G163" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H163" t="s" s="2">
         <v>43</v>
@@ -21444,7 +21422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="164" hidden="true">
+    <row r="164">
       <c r="A164" t="s" s="2">
         <v>380</v>
       </c>
@@ -21460,7 +21438,7 @@
         <v>50</v>
       </c>
       <c r="G164" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H164" t="s" s="2">
         <v>43</v>
@@ -21553,7 +21531,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" hidden="true">
+    <row r="165">
       <c r="A165" t="s" s="2">
         <v>384</v>
       </c>
@@ -21569,7 +21547,7 @@
         <v>50</v>
       </c>
       <c r="G165" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H165" t="s" s="2">
         <v>43</v>
@@ -21779,9 +21757,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="167" hidden="true">
+    <row r="167">
       <c r="A167" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21795,7 +21773,7 @@
         <v>42</v>
       </c>
       <c r="G167" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H167" t="s" s="2">
         <v>43</v>
@@ -21807,14 +21785,14 @@
         <v>211</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>43</v>
@@ -21863,7 +21841,7 @@
         <v>43</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>41</v>
@@ -21892,7 +21870,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22001,7 +21979,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22112,7 +22090,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22225,7 +22203,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22251,16 +22229,16 @@
         <v>326</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M171" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L171" t="s" s="2">
+      <c r="N171" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>43</v>
@@ -22309,7 +22287,7 @@
         <v>43</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>50</v>
@@ -22338,7 +22316,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22364,14 +22342,14 @@
         <v>125</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>43</v>
@@ -22399,10 +22377,10 @@
         <v>140</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Z172" t="s" s="2">
         <v>43</v>
@@ -22420,7 +22398,7 @@
         <v>43</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>50</v>
@@ -22449,7 +22427,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22475,16 +22453,16 @@
         <v>125</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M173" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>43</v>
@@ -22513,7 +22491,7 @@
       </c>
       <c r="X173" s="2"/>
       <c r="Y173" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>43</v>
@@ -22531,7 +22509,7 @@
         <v>43</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>41</v>
@@ -22558,9 +22536,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="174" hidden="true">
+    <row r="174">
       <c r="A174" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22574,7 +22552,7 @@
         <v>50</v>
       </c>
       <c r="G174" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H174" t="s" s="2">
         <v>43</v>
@@ -22586,14 +22564,14 @@
         <v>125</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>43</v>
@@ -22621,10 +22599,10 @@
         <v>140</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>43</v>
@@ -22642,7 +22620,7 @@
         <v>43</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>41</v>
@@ -22671,7 +22649,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22697,16 +22675,16 @@
         <v>125</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L175" t="s" s="2">
+      <c r="N175" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>43</v>
@@ -22734,10 +22712,10 @@
         <v>140</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Z175" t="s" s="2">
         <v>43</v>
@@ -22755,7 +22733,7 @@
         <v>43</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>41</v>
@@ -22782,9 +22760,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="176" hidden="true">
+    <row r="176">
       <c r="A176" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22798,7 +22776,7 @@
         <v>42</v>
       </c>
       <c r="G176" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H176" t="s" s="2">
         <v>43</v>
@@ -22810,14 +22788,14 @@
         <v>211</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>43</v>
@@ -22866,7 +22844,7 @@
         <v>43</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>41</v>
@@ -22895,7 +22873,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23004,7 +22982,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23115,7 +23093,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23228,7 +23206,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23254,14 +23232,14 @@
         <v>326</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>43</v>
@@ -23310,7 +23288,7 @@
         <v>43</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>50</v>
@@ -23337,9 +23315,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="181" hidden="true">
+    <row r="181">
       <c r="A181" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23353,7 +23331,7 @@
         <v>42</v>
       </c>
       <c r="G181" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H181" t="s" s="2">
         <v>43</v>
@@ -23365,14 +23343,14 @@
         <v>125</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>43</v>
@@ -23400,10 +23378,10 @@
         <v>140</v>
       </c>
       <c r="X181" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="Z181" t="s" s="2">
         <v>43</v>
@@ -23421,7 +23399,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>41</v>
@@ -23448,9 +23426,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="182" hidden="true">
+    <row r="182">
       <c r="A182" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23464,7 +23442,7 @@
         <v>50</v>
       </c>
       <c r="G182" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H182" t="s" s="2">
         <v>43</v>
@@ -23476,14 +23454,14 @@
         <v>165</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>43</v>
@@ -23532,7 +23510,7 @@
         <v>43</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>41</v>
@@ -23561,7 +23539,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23587,14 +23565,14 @@
         <v>125</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>43</v>
@@ -23622,10 +23600,10 @@
         <v>140</v>
       </c>
       <c r="X183" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="Z183" t="s" s="2">
         <v>43</v>
@@ -23643,7 +23621,7 @@
         <v>43</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>50</v>
@@ -23672,7 +23650,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23695,17 +23673,17 @@
         <v>43</v>
       </c>
       <c r="J184" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="K184" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L184" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="K184" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>43</v>
@@ -23754,7 +23732,7 @@
         <v>43</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>41</v>
@@ -23783,7 +23761,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23809,14 +23787,14 @@
         <v>326</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>43</v>
@@ -23865,7 +23843,7 @@
         <v>43</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>41</v>
@@ -23894,7 +23872,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23905,7 +23883,7 @@
         <v>50</v>
       </c>
       <c r="F186" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G186" t="s" s="2">
         <v>43</v>
@@ -23920,16 +23898,16 @@
         <v>211</v>
       </c>
       <c r="K186" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M186" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="N186" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>43</v>
@@ -23966,17 +23944,17 @@
         <v>43</v>
       </c>
       <c r="AA186" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AB186" s="2"/>
       <c r="AC186" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD186" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>50</v>
@@ -23997,7 +23975,7 @@
         <v>43</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>43</v>
@@ -24005,7 +23983,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24114,7 +24092,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24225,7 +24203,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24338,7 +24316,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24364,23 +24342,23 @@
         <v>337</v>
       </c>
       <c r="K190" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M190" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="L190" t="s" s="2">
+      <c r="N190" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N190" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P190" s="2"/>
       <c r="Q190" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="R190" t="s" s="2">
         <v>43</v>
@@ -24422,7 +24400,7 @@
         <v>43</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>50</v>
@@ -24451,7 +24429,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24474,17 +24452,17 @@
         <v>51</v>
       </c>
       <c r="J191" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="K191" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L191" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="K191" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="L191" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>43</v>
@@ -24533,7 +24511,7 @@
         <v>43</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>50</v>
@@ -24562,7 +24540,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24588,16 +24566,16 @@
         <v>52</v>
       </c>
       <c r="K192" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L192" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M192" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L192" t="s" s="2">
+      <c r="N192" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>43</v>
@@ -24646,7 +24624,7 @@
         <v>43</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>41</v>
@@ -24675,10 +24653,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C193" t="s" s="2">
         <v>43</v>
@@ -24703,16 +24681,16 @@
         <v>211</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L193" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M193" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L193" t="s" s="2">
+      <c r="N193" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="M193" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>43</v>
@@ -24761,7 +24739,7 @@
         <v>43</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>50</v>
@@ -24782,7 +24760,7 @@
         <v>43</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>43</v>
@@ -24790,7 +24768,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -24899,7 +24877,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25010,7 +24988,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25123,7 +25101,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25149,23 +25127,23 @@
         <v>337</v>
       </c>
       <c r="K197" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L197" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M197" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="L197" t="s" s="2">
+      <c r="N197" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="M197" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N197" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P197" s="2"/>
       <c r="Q197" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="R197" t="s" s="2">
         <v>43</v>
@@ -25207,7 +25185,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>50</v>
@@ -25236,7 +25214,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25259,17 +25237,17 @@
         <v>51</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>43</v>
@@ -25318,7 +25296,7 @@
         <v>43</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>50</v>
@@ -25347,7 +25325,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25373,16 +25351,16 @@
         <v>52</v>
       </c>
       <c r="K199" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M199" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L199" t="s" s="2">
+      <c r="N199" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="M199" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>43</v>
@@ -25431,7 +25409,7 @@
         <v>43</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>41</v>
@@ -25460,7 +25438,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25486,14 +25464,14 @@
         <v>211</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>43</v>
@@ -25542,7 +25520,7 @@
         <v>43</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>41</v>
@@ -25571,7 +25549,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25680,7 +25658,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25791,7 +25769,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -25904,7 +25882,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -25927,19 +25905,19 @@
         <v>43</v>
       </c>
       <c r="J204" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="K204" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L204" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="K204" t="s" s="2">
+      <c r="M204" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="L204" t="s" s="2">
+      <c r="N204" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="M204" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -25988,7 +25966,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26017,7 +25995,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26043,14 +26021,14 @@
         <v>125</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>43</v>
@@ -26078,10 +26056,10 @@
         <v>131</v>
       </c>
       <c r="X205" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Y205" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="Z205" t="s" s="2">
         <v>43</v>
@@ -26099,7 +26077,7 @@
         <v>43</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>41</v>
@@ -26128,7 +26106,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26151,17 +26129,17 @@
         <v>43</v>
       </c>
       <c r="J206" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="K206" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L206" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="K206" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>43</v>
@@ -26210,7 +26188,7 @@
         <v>43</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -26237,9 +26215,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="207" hidden="true">
+    <row r="207">
       <c r="A207" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26253,7 +26231,7 @@
         <v>42</v>
       </c>
       <c r="G207" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H207" t="s" s="2">
         <v>43</v>
@@ -26265,14 +26243,14 @@
         <v>211</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M207" s="2"/>
       <c r="N207" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>43</v>
@@ -26321,7 +26299,7 @@
         <v>43</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>41</v>
@@ -26350,7 +26328,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26459,7 +26437,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26570,7 +26548,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26683,7 +26661,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26709,14 +26687,14 @@
         <v>326</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -26765,7 +26743,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>50</v>
@@ -26792,9 +26770,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="212" hidden="true">
+    <row r="212">
       <c r="A212" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26808,7 +26786,7 @@
         <v>42</v>
       </c>
       <c r="G212" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H212" t="s" s="2">
         <v>43</v>
@@ -26820,14 +26798,14 @@
         <v>326</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -26876,7 +26854,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -26903,9 +26881,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="213" hidden="true">
+    <row r="213">
       <c r="A213" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -26919,7 +26897,7 @@
         <v>42</v>
       </c>
       <c r="G213" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H213" t="s" s="2">
         <v>43</v>
@@ -26931,14 +26909,14 @@
         <v>326</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -26987,7 +26965,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -27014,9 +26992,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="214" hidden="true">
+    <row r="214">
       <c r="A214" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27030,7 +27008,7 @@
         <v>42</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H214" t="s" s="2">
         <v>43</v>
@@ -27042,14 +27020,14 @@
         <v>326</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27098,7 +27076,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27125,9 +27103,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="215" hidden="true">
+    <row r="215">
       <c r="A215" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27141,7 +27119,7 @@
         <v>42</v>
       </c>
       <c r="G215" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H215" t="s" s="2">
         <v>43</v>
@@ -27153,14 +27131,14 @@
         <v>326</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>43</v>
@@ -27209,7 +27187,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27238,7 +27216,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27264,14 +27242,14 @@
         <v>125</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27299,10 +27277,10 @@
         <v>140</v>
       </c>
       <c r="X216" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Z216" t="s" s="2">
         <v>43</v>
@@ -27320,7 +27298,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -27347,9 +27325,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="217" hidden="true">
+    <row r="217">
       <c r="A217" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27363,7 +27341,7 @@
         <v>50</v>
       </c>
       <c r="G217" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H217" t="s" s="2">
         <v>43</v>
@@ -27375,16 +27353,16 @@
         <v>125</v>
       </c>
       <c r="K217" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L217" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M217" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="L217" t="s" s="2">
+      <c r="N217" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>43</v>
@@ -27412,10 +27390,10 @@
         <v>140</v>
       </c>
       <c r="X217" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>43</v>
@@ -27433,7 +27411,7 @@
         <v>43</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>41</v>
@@ -27462,11 +27440,11 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27488,16 +27466,16 @@
         <v>125</v>
       </c>
       <c r="K218" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L218" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M218" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L218" t="s" s="2">
+      <c r="N218" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M218" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -27525,10 +27503,10 @@
         <v>140</v>
       </c>
       <c r="X218" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Y218" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z218" t="s" s="2">
         <v>43</v>
@@ -27546,7 +27524,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>50</v>
@@ -27573,9 +27551,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="219" hidden="true">
+    <row r="219">
       <c r="A219" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27589,7 +27567,7 @@
         <v>42</v>
       </c>
       <c r="G219" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H219" t="s" s="2">
         <v>43</v>
@@ -27601,16 +27579,16 @@
         <v>125</v>
       </c>
       <c r="K219" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L219" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M219" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="L219" t="s" s="2">
+      <c r="N219" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M219" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -27638,10 +27616,10 @@
         <v>140</v>
       </c>
       <c r="X219" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="Y219" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Z219" t="s" s="2">
         <v>43</v>
@@ -27659,7 +27637,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -27688,7 +27666,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -27714,16 +27692,16 @@
         <v>125</v>
       </c>
       <c r="K220" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L220" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M220" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="L220" t="s" s="2">
+      <c r="N220" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M220" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -27751,10 +27729,10 @@
         <v>140</v>
       </c>
       <c r="X220" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="Z220" t="s" s="2">
         <v>43</v>
@@ -27772,7 +27750,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -27799,9 +27777,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="221" hidden="true">
+    <row r="221">
       <c r="A221" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -27815,7 +27793,7 @@
         <v>50</v>
       </c>
       <c r="G221" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H221" t="s" s="2">
         <v>43</v>
@@ -27827,14 +27805,14 @@
         <v>381</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -27883,7 +27861,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -27910,9 +27888,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="222" hidden="true">
+    <row r="222">
       <c r="A222" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -27926,7 +27904,7 @@
         <v>50</v>
       </c>
       <c r="G222" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H222" t="s" s="2">
         <v>43</v>
@@ -27935,17 +27913,17 @@
         <v>43</v>
       </c>
       <c r="J222" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="K222" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L222" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="K222" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="L222" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -27973,10 +27951,10 @@
         <v>140</v>
       </c>
       <c r="X222" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="Y222" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="Z222" t="s" s="2">
         <v>43</v>
@@ -27994,7 +27972,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28021,9 +27999,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="223" hidden="true">
+    <row r="223">
       <c r="A223" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28037,7 +28015,7 @@
         <v>50</v>
       </c>
       <c r="G223" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>43</v>
@@ -28046,17 +28024,17 @@
         <v>43</v>
       </c>
       <c r="J223" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="K223" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L223" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="K223" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="L223" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="M223" s="2"/>
       <c r="N223" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>43</v>
@@ -28105,7 +28083,7 @@
         <v>43</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>41</v>
@@ -28134,7 +28112,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28157,17 +28135,17 @@
         <v>43</v>
       </c>
       <c r="J224" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="K224" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L224" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="K224" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="L224" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="M224" s="2"/>
       <c r="N224" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>43</v>
@@ -28216,7 +28194,7 @@
         <v>43</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>41</v>
@@ -28245,7 +28223,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28268,19 +28246,19 @@
         <v>43</v>
       </c>
       <c r="J225" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="K225" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L225" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="K225" t="s" s="2">
+      <c r="M225" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="L225" t="s" s="2">
+      <c r="N225" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="M225" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>43</v>
@@ -28329,7 +28307,7 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>41</v>
@@ -28356,9 +28334,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="226" hidden="true">
+    <row r="226">
       <c r="A226" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28372,7 +28350,7 @@
         <v>50</v>
       </c>
       <c r="G226" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H226" t="s" s="2">
         <v>43</v>
@@ -28381,19 +28359,19 @@
         <v>43</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K226" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L226" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M226" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="L226" t="s" s="2">
+      <c r="N226" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="M226" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28442,7 +28420,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
@@ -28471,7 +28449,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28494,17 +28472,17 @@
         <v>43</v>
       </c>
       <c r="J227" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="K227" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L227" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="K227" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L227" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="M227" s="2"/>
       <c r="N227" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
@@ -28553,7 +28531,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28582,7 +28560,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28608,16 +28586,16 @@
         <v>125</v>
       </c>
       <c r="K228" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L228" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M228" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="L228" t="s" s="2">
+      <c r="N228" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="M228" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -28645,10 +28623,10 @@
         <v>140</v>
       </c>
       <c r="X228" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Y228" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="Z228" t="s" s="2">
         <v>43</v>
@@ -28666,7 +28644,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -28695,7 +28673,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -28721,14 +28699,14 @@
         <v>125</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="M229" s="2"/>
       <c r="N229" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
@@ -28756,10 +28734,10 @@
         <v>140</v>
       </c>
       <c r="X229" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="Z229" t="s" s="2">
         <v>43</v>
@@ -28777,7 +28755,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -28806,7 +28784,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -28829,17 +28807,17 @@
         <v>43</v>
       </c>
       <c r="J230" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="K230" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L230" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="K230" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="L230" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="M230" s="2"/>
       <c r="N230" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>43</v>
@@ -28888,7 +28866,7 @@
         <v>43</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>41</v>
@@ -28917,7 +28895,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -28943,14 +28921,14 @@
         <v>326</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="M231" s="2"/>
       <c r="N231" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>43</v>
@@ -28999,7 +28977,7 @@
         <v>43</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>41</v>
@@ -29028,7 +29006,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29054,14 +29032,14 @@
         <v>211</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M232" s="2"/>
       <c r="N232" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>43</v>
@@ -29110,7 +29088,7 @@
         <v>43</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>41</v>
@@ -29139,7 +29117,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29248,7 +29226,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29359,7 +29337,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29472,7 +29450,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29498,16 +29476,16 @@
         <v>125</v>
       </c>
       <c r="K236" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="L236" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M236" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="L236" t="s" s="2">
+      <c r="N236" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="M236" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29535,10 +29513,10 @@
         <v>140</v>
       </c>
       <c r="X236" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Y236" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="Z236" t="s" s="2">
         <v>43</v>
@@ -29556,7 +29534,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>50</v>
@@ -29585,7 +29563,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29611,16 +29589,16 @@
         <v>125</v>
       </c>
       <c r="K237" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="L237" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="M237" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="L237" t="s" s="2">
+      <c r="N237" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="M237" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>681</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -29648,10 +29626,10 @@
         <v>140</v>
       </c>
       <c r="X237" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="Y237" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="Z237" t="s" s="2">
         <v>43</v>
@@ -29669,7 +29647,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -29698,7 +29676,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -29721,19 +29699,19 @@
         <v>43</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K238" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="L238" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="M238" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="L238" t="s" s="2">
+      <c r="N238" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="M238" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="N238" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -29782,7 +29760,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -29811,7 +29789,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -29834,19 +29812,19 @@
         <v>43</v>
       </c>
       <c r="J239" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K239" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="L239" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="M239" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="L239" t="s" s="2">
+      <c r="N239" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="M239" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="N239" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="O239" t="s" s="2">
         <v>43</v>
@@ -29895,7 +29873,7 @@
         <v>43</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>41</v>
@@ -29924,7 +29902,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -29950,10 +29928,10 @@
         <v>211</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="M240" s="2"/>
       <c r="N240" s="2"/>
@@ -30004,7 +29982,7 @@
         <v>43</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>41</v>
@@ -30033,7 +30011,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30142,7 +30120,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30253,7 +30231,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30366,7 +30344,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30392,14 +30370,14 @@
         <v>326</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="M244" s="2"/>
       <c r="N244" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30448,7 +30426,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>50</v>
@@ -30477,7 +30455,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30503,14 +30481,14 @@
         <v>125</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M245" s="2"/>
       <c r="N245" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -30538,10 +30516,10 @@
         <v>140</v>
       </c>
       <c r="X245" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Y245" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Z245" t="s" s="2">
         <v>43</v>
@@ -30559,7 +30537,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30588,7 +30566,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30614,16 +30592,16 @@
         <v>125</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L246" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M246" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="N246" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="M246" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="N246" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -30651,10 +30629,10 @@
         <v>140</v>
       </c>
       <c r="X246" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="Y246" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Z246" t="s" s="2">
         <v>43</v>
@@ -30672,7 +30650,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -30701,11 +30679,11 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -30727,16 +30705,16 @@
         <v>125</v>
       </c>
       <c r="K247" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L247" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M247" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L247" t="s" s="2">
+      <c r="N247" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M247" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N247" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>43</v>
@@ -30764,10 +30742,10 @@
         <v>140</v>
       </c>
       <c r="X247" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z247" t="s" s="2">
         <v>43</v>
@@ -30785,7 +30763,7 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>50</v>
@@ -30814,7 +30792,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -30840,16 +30818,16 @@
         <v>125</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L248" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M248" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N248" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M248" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N248" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O248" t="s" s="2">
         <v>43</v>
@@ -30877,10 +30855,10 @@
         <v>140</v>
       </c>
       <c r="X248" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="Y248" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Z248" t="s" s="2">
         <v>43</v>
@@ -30898,7 +30876,7 @@
         <v>43</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>41</v>
@@ -30927,7 +30905,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -30953,16 +30931,16 @@
         <v>125</v>
       </c>
       <c r="K249" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L249" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M249" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="L249" t="s" s="2">
+      <c r="N249" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M249" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N249" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="O249" t="s" s="2">
         <v>43</v>
@@ -30990,10 +30968,10 @@
         <v>140</v>
       </c>
       <c r="X249" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="Z249" t="s" s="2">
         <v>43</v>
@@ -31011,7 +30989,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>41</v>
@@ -31040,7 +31018,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31063,17 +31041,17 @@
         <v>43</v>
       </c>
       <c r="J250" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="K250" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L250" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="K250" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="L250" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="M250" s="2"/>
       <c r="N250" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31122,7 +31100,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31151,7 +31129,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31174,17 +31152,17 @@
         <v>43</v>
       </c>
       <c r="J251" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="K251" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L251" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="K251" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="L251" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="M251" s="2"/>
       <c r="N251" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31233,7 +31211,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31262,7 +31240,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31285,19 +31263,19 @@
         <v>43</v>
       </c>
       <c r="J252" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="K252" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L252" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="K252" t="s" s="2">
+      <c r="M252" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="L252" t="s" s="2">
+      <c r="N252" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="M252" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N252" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31346,7 +31324,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31375,7 +31353,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31398,19 +31376,19 @@
         <v>43</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K253" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L253" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M253" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="L253" t="s" s="2">
+      <c r="N253" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="M253" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N253" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31459,7 +31437,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31488,7 +31466,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31511,17 +31489,17 @@
         <v>43</v>
       </c>
       <c r="J254" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="K254" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="K254" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L254" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="M254" s="2"/>
       <c r="N254" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31570,7 +31548,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31599,7 +31577,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31625,14 +31603,14 @@
         <v>326</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="M255" s="2"/>
       <c r="N255" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
@@ -31681,7 +31659,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -31710,7 +31688,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -31736,10 +31714,10 @@
         <v>43</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="M256" s="2"/>
       <c r="N256" s="2"/>
@@ -31790,7 +31768,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -31819,7 +31797,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -31845,10 +31823,10 @@
         <v>211</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="M257" s="2"/>
       <c r="N257" s="2"/>
@@ -31899,7 +31877,7 @@
         <v>43</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>41</v>
@@ -31928,7 +31906,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32037,7 +32015,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32148,7 +32126,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32261,7 +32239,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32287,14 +32265,14 @@
         <v>326</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="M261" s="2"/>
       <c r="N261" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32343,7 +32321,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>50</v>
@@ -32372,7 +32350,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32398,14 +32376,14 @@
         <v>125</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M262" s="2"/>
       <c r="N262" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32433,10 +32411,10 @@
         <v>140</v>
       </c>
       <c r="X262" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Y262" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Z262" t="s" s="2">
         <v>43</v>
@@ -32454,7 +32432,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32483,7 +32461,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32509,16 +32487,16 @@
         <v>125</v>
       </c>
       <c r="K263" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L263" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M263" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="L263" t="s" s="2">
+      <c r="N263" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="M263" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N263" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>43</v>
@@ -32546,10 +32524,10 @@
         <v>140</v>
       </c>
       <c r="X263" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="Y263" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Z263" t="s" s="2">
         <v>43</v>
@@ -32567,7 +32545,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32596,11 +32574,11 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" t="s" s="2">
@@ -32622,16 +32600,16 @@
         <v>125</v>
       </c>
       <c r="K264" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L264" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M264" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L264" t="s" s="2">
+      <c r="N264" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M264" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N264" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O264" t="s" s="2">
         <v>43</v>
@@ -32659,10 +32637,10 @@
         <v>140</v>
       </c>
       <c r="X264" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Y264" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z264" t="s" s="2">
         <v>43</v>
@@ -32680,7 +32658,7 @@
         <v>43</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>50</v>
@@ -32709,7 +32687,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -32735,16 +32713,16 @@
         <v>125</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L265" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M265" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="N265" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M265" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="N265" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>43</v>
@@ -32772,10 +32750,10 @@
         <v>140</v>
       </c>
       <c r="X265" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="Y265" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Z265" t="s" s="2">
         <v>43</v>
@@ -32793,7 +32771,7 @@
         <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>41</v>
@@ -32822,7 +32800,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -32848,16 +32826,16 @@
         <v>125</v>
       </c>
       <c r="K266" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L266" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M266" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="L266" t="s" s="2">
+      <c r="N266" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M266" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N266" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -32885,10 +32863,10 @@
         <v>140</v>
       </c>
       <c r="X266" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="Y266" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="Z266" t="s" s="2">
         <v>43</v>
@@ -32906,7 +32884,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
@@ -32935,7 +32913,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -32958,17 +32936,17 @@
         <v>43</v>
       </c>
       <c r="J267" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="K267" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L267" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="K267" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="L267" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33017,7 +32995,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33046,7 +33024,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33069,17 +33047,17 @@
         <v>43</v>
       </c>
       <c r="J268" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="K268" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L268" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="K268" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="L268" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="M268" s="2"/>
       <c r="N268" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33128,7 +33106,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33157,7 +33135,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33180,19 +33158,19 @@
         <v>43</v>
       </c>
       <c r="J269" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="K269" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L269" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="K269" t="s" s="2">
+      <c r="M269" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="L269" t="s" s="2">
+      <c r="N269" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="M269" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N269" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33241,7 +33219,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33270,7 +33248,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33293,19 +33271,19 @@
         <v>43</v>
       </c>
       <c r="J270" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K270" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L270" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M270" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="L270" t="s" s="2">
+      <c r="N270" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="M270" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N270" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33354,7 +33332,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33383,7 +33361,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33406,17 +33384,17 @@
         <v>43</v>
       </c>
       <c r="J271" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="K271" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L271" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="K271" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L271" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="M271" s="2"/>
       <c r="N271" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33465,7 +33443,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33494,7 +33472,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33520,14 +33498,14 @@
         <v>326</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="M272" s="2"/>
       <c r="N272" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33576,7 +33554,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33605,7 +33583,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33631,10 +33609,10 @@
         <v>43</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
@@ -33685,7 +33663,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -33714,7 +33692,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -33740,14 +33718,14 @@
         <v>211</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="M274" s="2"/>
       <c r="N274" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>43</v>
@@ -33796,7 +33774,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -33825,7 +33803,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -33934,7 +33912,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34045,7 +34023,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34158,7 +34136,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34184,14 +34162,14 @@
         <v>326</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="M278" s="2"/>
       <c r="N278" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34240,7 +34218,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34269,7 +34247,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34295,14 +34273,14 @@
         <v>326</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34351,7 +34329,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34380,7 +34358,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34406,14 +34384,14 @@
         <v>326</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="M280" s="2"/>
       <c r="N280" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34462,7 +34440,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -34491,7 +34469,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34514,17 +34492,17 @@
         <v>43</v>
       </c>
       <c r="J281" t="s" s="2">
-        <v>331</v>
+        <v>756</v>
       </c>
       <c r="K281" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="L281" t="s" s="2">
         <v>758</v>
-      </c>
-      <c r="L281" t="s" s="2">
-        <v>759</v>
       </c>
       <c r="M281" s="2"/>
       <c r="N281" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>43</v>
@@ -34573,7 +34551,7 @@
         <v>43</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>41</v>
@@ -34602,11 +34580,11 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
@@ -34628,16 +34606,16 @@
         <v>125</v>
       </c>
       <c r="K282" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L282" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M282" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L282" t="s" s="2">
+      <c r="N282" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M282" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N282" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>43</v>
@@ -34665,10 +34643,10 @@
         <v>140</v>
       </c>
       <c r="X282" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Y282" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z282" t="s" s="2">
         <v>43</v>
@@ -34686,7 +34664,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>50</v>
@@ -34715,7 +34693,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -34741,16 +34719,16 @@
         <v>125</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L283" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M283" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N283" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M283" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N283" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>43</v>
@@ -34778,10 +34756,10 @@
         <v>140</v>
       </c>
       <c r="X283" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="Y283" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Z283" t="s" s="2">
         <v>43</v>
@@ -34799,7 +34777,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -34828,7 +34806,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -34854,16 +34832,16 @@
         <v>125</v>
       </c>
       <c r="K284" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L284" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M284" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="L284" t="s" s="2">
+      <c r="N284" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M284" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N284" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>43</v>
@@ -34891,10 +34869,10 @@
         <v>140</v>
       </c>
       <c r="X284" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="Y284" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="Z284" t="s" s="2">
         <v>43</v>
@@ -34912,7 +34890,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -34941,7 +34919,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -34967,14 +34945,14 @@
         <v>381</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="O285" t="s" s="2">
         <v>43</v>
@@ -35023,7 +35001,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35052,7 +35030,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35075,17 +35053,17 @@
         <v>43</v>
       </c>
       <c r="J286" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="K286" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L286" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="K286" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="L286" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="M286" s="2"/>
       <c r="N286" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="O286" t="s" s="2">
         <v>43</v>
@@ -35113,10 +35091,10 @@
         <v>140</v>
       </c>
       <c r="X286" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="Y286" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="Z286" t="s" s="2">
         <v>43</v>
@@ -35134,7 +35112,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35163,7 +35141,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35186,17 +35164,17 @@
         <v>43</v>
       </c>
       <c r="J287" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="K287" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L287" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="K287" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="L287" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="M287" s="2"/>
       <c r="N287" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>43</v>
@@ -35245,7 +35223,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>41</v>
@@ -35274,7 +35252,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35297,17 +35275,17 @@
         <v>43</v>
       </c>
       <c r="J288" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="K288" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L288" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="K288" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="L288" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="M288" s="2"/>
       <c r="N288" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>43</v>
@@ -35356,7 +35334,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35385,7 +35363,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35408,19 +35386,19 @@
         <v>43</v>
       </c>
       <c r="J289" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="K289" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L289" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="K289" t="s" s="2">
+      <c r="M289" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="L289" t="s" s="2">
+      <c r="N289" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="M289" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N289" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>43</v>
@@ -35469,7 +35447,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>41</v>
@@ -35498,7 +35476,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35521,19 +35499,19 @@
         <v>43</v>
       </c>
       <c r="J290" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K290" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L290" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M290" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="L290" t="s" s="2">
+      <c r="N290" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="M290" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N290" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -35582,7 +35560,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -35611,7 +35589,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -35637,16 +35615,16 @@
         <v>125</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="L291" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M291" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="N291" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="M291" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="N291" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>43</v>
@@ -35674,10 +35652,10 @@
         <v>140</v>
       </c>
       <c r="X291" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Y291" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="Z291" t="s" s="2">
         <v>43</v>
@@ -35695,7 +35673,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -35724,7 +35702,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -35750,14 +35728,14 @@
         <v>125</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="M292" s="2"/>
       <c r="N292" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="O292" t="s" s="2">
         <v>43</v>
@@ -35785,10 +35763,10 @@
         <v>140</v>
       </c>
       <c r="X292" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="Y292" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="Z292" t="s" s="2">
         <v>43</v>
@@ -35806,7 +35784,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -35835,7 +35813,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -35861,14 +35839,14 @@
         <v>326</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="M293" s="2"/>
       <c r="N293" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="O293" t="s" s="2">
         <v>43</v>
@@ -35917,7 +35895,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -35946,7 +35924,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -35972,10 +35950,10 @@
         <v>43</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="M294" s="2"/>
       <c r="N294" s="2"/>
@@ -36026,7 +36004,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36055,7 +36033,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36081,10 +36059,10 @@
         <v>211</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M295" s="2"/>
       <c r="N295" s="2"/>
@@ -36135,7 +36113,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>41</v>
@@ -36164,7 +36142,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36273,7 +36251,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36384,7 +36362,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36497,11 +36475,11 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
@@ -36523,16 +36501,16 @@
         <v>125</v>
       </c>
       <c r="K299" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L299" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M299" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L299" t="s" s="2">
+      <c r="N299" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M299" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N299" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>43</v>
@@ -36560,10 +36538,10 @@
         <v>140</v>
       </c>
       <c r="X299" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Y299" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z299" t="s" s="2">
         <v>43</v>
@@ -36581,7 +36559,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>50</v>
@@ -36610,7 +36588,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -36636,16 +36614,16 @@
         <v>125</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L300" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M300" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N300" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M300" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N300" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O300" t="s" s="2">
         <v>43</v>
@@ -36673,10 +36651,10 @@
         <v>140</v>
       </c>
       <c r="X300" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="Y300" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Z300" t="s" s="2">
         <v>43</v>
@@ -36694,7 +36672,7 @@
         <v>43</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>41</v>
@@ -36723,7 +36701,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -36746,17 +36724,17 @@
         <v>43</v>
       </c>
       <c r="J301" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="K301" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L301" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="K301" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="L301" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O301" t="s" s="2">
         <v>43</v>
@@ -36805,7 +36783,7 @@
         <v>43</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>41</v>
@@ -36834,7 +36812,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -36857,17 +36835,17 @@
         <v>43</v>
       </c>
       <c r="J302" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="K302" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L302" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="K302" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="L302" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="M302" s="2"/>
       <c r="N302" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="O302" t="s" s="2">
         <v>43</v>
@@ -36916,7 +36894,7 @@
         <v>43</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>41</v>
@@ -36945,7 +36923,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -36968,19 +36946,19 @@
         <v>43</v>
       </c>
       <c r="J303" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="K303" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L303" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="K303" t="s" s="2">
+      <c r="M303" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="L303" t="s" s="2">
+      <c r="N303" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="M303" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N303" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="O303" t="s" s="2">
         <v>43</v>
@@ -37029,7 +37007,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37058,7 +37036,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37081,19 +37059,19 @@
         <v>43</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K304" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L304" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M304" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="L304" t="s" s="2">
+      <c r="N304" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="M304" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N304" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="O304" t="s" s="2">
         <v>43</v>
@@ -37142,7 +37120,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>41</v>
@@ -37171,7 +37149,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37197,14 +37175,14 @@
         <v>326</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="M305" s="2"/>
       <c r="N305" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>43</v>
@@ -37253,7 +37231,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>41</v>
@@ -37282,7 +37260,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37308,10 +37286,10 @@
         <v>43</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="M306" s="2"/>
       <c r="N306" s="2"/>
@@ -37362,7 +37340,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37391,7 +37369,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37417,10 +37395,10 @@
         <v>211</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M307" s="2"/>
       <c r="N307" s="2"/>
@@ -37471,7 +37449,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37500,7 +37478,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37609,7 +37587,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -37720,7 +37698,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -37833,11 +37811,11 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -37859,16 +37837,16 @@
         <v>125</v>
       </c>
       <c r="K311" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L311" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M311" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L311" t="s" s="2">
+      <c r="N311" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M311" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N311" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O311" t="s" s="2">
         <v>43</v>
@@ -37896,10 +37874,10 @@
         <v>140</v>
       </c>
       <c r="X311" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Y311" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z311" t="s" s="2">
         <v>43</v>
@@ -37917,7 +37895,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>50</v>
@@ -37946,7 +37924,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -37972,16 +37950,16 @@
         <v>125</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L312" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M312" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N312" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M312" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N312" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O312" t="s" s="2">
         <v>43</v>
@@ -38009,10 +37987,10 @@
         <v>140</v>
       </c>
       <c r="X312" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="Y312" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Z312" t="s" s="2">
         <v>43</v>
@@ -38030,7 +38008,7 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>41</v>
@@ -38059,7 +38037,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38082,17 +38060,17 @@
         <v>43</v>
       </c>
       <c r="J313" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="K313" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L313" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="K313" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="L313" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="M313" s="2"/>
       <c r="N313" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>43</v>
@@ -38141,7 +38119,7 @@
         <v>43</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>41</v>
@@ -38170,7 +38148,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38193,17 +38171,17 @@
         <v>43</v>
       </c>
       <c r="J314" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="K314" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L314" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="K314" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="L314" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="M314" s="2"/>
       <c r="N314" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="O314" t="s" s="2">
         <v>43</v>
@@ -38252,7 +38230,7 @@
         <v>43</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>41</v>
@@ -38281,7 +38259,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38304,19 +38282,19 @@
         <v>43</v>
       </c>
       <c r="J315" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="K315" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L315" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="K315" t="s" s="2">
+      <c r="M315" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="L315" t="s" s="2">
+      <c r="N315" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="M315" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N315" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="O315" t="s" s="2">
         <v>43</v>
@@ -38365,7 +38343,7 @@
         <v>43</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>41</v>
@@ -38394,7 +38372,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38417,19 +38395,19 @@
         <v>43</v>
       </c>
       <c r="J316" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K316" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L316" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M316" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="L316" t="s" s="2">
+      <c r="N316" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="M316" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N316" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>43</v>
@@ -38478,7 +38456,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>41</v>
@@ -38507,7 +38485,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -38533,14 +38511,14 @@
         <v>326</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="M317" s="2"/>
       <c r="N317" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="O317" t="s" s="2">
         <v>43</v>
@@ -38589,7 +38567,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -38618,7 +38596,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -38644,10 +38622,10 @@
         <v>43</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="M318" s="2"/>
       <c r="N318" s="2"/>
@@ -38698,7 +38676,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>41</v>
@@ -38727,7 +38705,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -38753,14 +38731,14 @@
         <v>43</v>
       </c>
       <c r="K319" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="L319" t="s" s="2">
         <v>803</v>
-      </c>
-      <c r="L319" t="s" s="2">
-        <v>804</v>
       </c>
       <c r="M319" s="2"/>
       <c r="N319" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="O319" t="s" s="2">
         <v>43</v>
@@ -38809,7 +38787,7 @@
         <v>43</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>41</v>
@@ -38838,7 +38816,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -38864,16 +38842,16 @@
         <v>211</v>
       </c>
       <c r="K320" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="L320" t="s" s="2">
         <v>807</v>
       </c>
-      <c r="L320" t="s" s="2">
+      <c r="M320" t="s" s="2">
         <v>808</v>
       </c>
-      <c r="M320" t="s" s="2">
+      <c r="N320" t="s" s="2">
         <v>809</v>
-      </c>
-      <c r="N320" t="s" s="2">
-        <v>810</v>
       </c>
       <c r="O320" t="s" s="2">
         <v>43</v>
@@ -38922,7 +38900,7 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>41</v>
@@ -38951,7 +38929,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39060,7 +39038,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39171,7 +39149,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39284,7 +39262,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39310,16 +39288,16 @@
         <v>125</v>
       </c>
       <c r="K324" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="L324" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="M324" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="L324" t="s" s="2">
+      <c r="N324" t="s" s="2">
         <v>815</v>
-      </c>
-      <c r="M324" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="N324" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>43</v>
@@ -39348,7 +39326,7 @@
       </c>
       <c r="X324" s="2"/>
       <c r="Y324" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="Z324" t="s" s="2">
         <v>43</v>
@@ -39366,7 +39344,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>50</v>
@@ -39395,7 +39373,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39418,17 +39396,17 @@
         <v>51</v>
       </c>
       <c r="J325" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K325" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="L325" t="s" s="2">
         <v>819</v>
-      </c>
-      <c r="L325" t="s" s="2">
-        <v>820</v>
       </c>
       <c r="M325" s="2"/>
       <c r="N325" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39477,7 +39455,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>50</v>
@@ -39506,7 +39484,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39532,14 +39510,14 @@
         <v>211</v>
       </c>
       <c r="K326" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="L326" t="s" s="2">
         <v>823</v>
-      </c>
-      <c r="L326" t="s" s="2">
-        <v>824</v>
       </c>
       <c r="M326" s="2"/>
       <c r="N326" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="O326" t="s" s="2">
         <v>43</v>
@@ -39588,7 +39566,7 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>41</v>
@@ -39617,7 +39595,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -39726,7 +39704,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -39837,7 +39815,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -39950,7 +39928,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -39976,14 +39954,14 @@
         <v>125</v>
       </c>
       <c r="K330" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="L330" t="s" s="2">
         <v>830</v>
-      </c>
-      <c r="L330" t="s" s="2">
-        <v>831</v>
       </c>
       <c r="M330" s="2"/>
       <c r="N330" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>43</v>
@@ -40011,11 +39989,11 @@
         <v>140</v>
       </c>
       <c r="X330" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="Y330" t="s" s="2">
         <v>833</v>
       </c>
-      <c r="Y330" t="s" s="2">
-        <v>834</v>
-      </c>
       <c r="Z330" t="s" s="2">
         <v>43</v>
       </c>
@@ -40032,7 +40010,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>41</v>
@@ -40061,7 +40039,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40084,19 +40062,19 @@
         <v>43</v>
       </c>
       <c r="J331" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K331" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="L331" t="s" s="2">
         <v>836</v>
       </c>
-      <c r="L331" t="s" s="2">
+      <c r="M331" t="s" s="2">
         <v>837</v>
       </c>
-      <c r="M331" t="s" s="2">
+      <c r="N331" t="s" s="2">
         <v>838</v>
-      </c>
-      <c r="N331" t="s" s="2">
-        <v>839</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>43</v>
@@ -40145,7 +40123,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>41</v>
@@ -40174,7 +40152,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40200,14 +40178,14 @@
         <v>125</v>
       </c>
       <c r="K332" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="L332" t="s" s="2">
         <v>841</v>
-      </c>
-      <c r="L332" t="s" s="2">
-        <v>842</v>
       </c>
       <c r="M332" s="2"/>
       <c r="N332" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="O332" t="s" s="2">
         <v>43</v>
@@ -40236,7 +40214,7 @@
       </c>
       <c r="X332" s="2"/>
       <c r="Y332" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="Z332" t="s" s="2">
         <v>43</v>
@@ -40254,7 +40232,7 @@
         <v>43</v>
       </c>
       <c r="AE332" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AF332" t="s" s="2">
         <v>41</v>
@@ -40283,7 +40261,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40306,17 +40284,17 @@
         <v>43</v>
       </c>
       <c r="J333" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K333" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="L333" t="s" s="2">
         <v>846</v>
-      </c>
-      <c r="L333" t="s" s="2">
-        <v>847</v>
       </c>
       <c r="M333" s="2"/>
       <c r="N333" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="O333" t="s" s="2">
         <v>43</v>
@@ -40365,7 +40343,7 @@
         <v>43</v>
       </c>
       <c r="AE333" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AF333" t="s" s="2">
         <v>41</v>
@@ -40394,7 +40372,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40417,17 +40395,17 @@
         <v>43</v>
       </c>
       <c r="J334" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K334" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="L334" t="s" s="2">
         <v>850</v>
-      </c>
-      <c r="L334" t="s" s="2">
-        <v>851</v>
       </c>
       <c r="M334" s="2"/>
       <c r="N334" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O334" t="s" s="2">
         <v>43</v>
@@ -40476,7 +40454,7 @@
         <v>43</v>
       </c>
       <c r="AE334" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AF334" t="s" s="2">
         <v>41</v>
@@ -40505,7 +40483,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40531,16 +40509,16 @@
         <v>108</v>
       </c>
       <c r="K335" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="L335" t="s" s="2">
         <v>854</v>
       </c>
-      <c r="L335" t="s" s="2">
+      <c r="M335" t="s" s="2">
         <v>855</v>
       </c>
-      <c r="M335" t="s" s="2">
+      <c r="N335" t="s" s="2">
         <v>856</v>
-      </c>
-      <c r="N335" t="s" s="2">
-        <v>857</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -40589,7 +40567,7 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>41</v>
@@ -40618,7 +40596,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -40644,16 +40622,16 @@
         <v>125</v>
       </c>
       <c r="K336" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="L336" t="s" s="2">
         <v>859</v>
       </c>
-      <c r="L336" t="s" s="2">
+      <c r="M336" t="s" s="2">
         <v>860</v>
       </c>
-      <c r="M336" t="s" s="2">
+      <c r="N336" t="s" s="2">
         <v>861</v>
-      </c>
-      <c r="N336" t="s" s="2">
-        <v>862</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -40681,11 +40659,11 @@
         <v>140</v>
       </c>
       <c r="X336" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="Y336" t="s" s="2">
         <v>863</v>
       </c>
-      <c r="Y336" t="s" s="2">
-        <v>864</v>
-      </c>
       <c r="Z336" t="s" s="2">
         <v>43</v>
       </c>
@@ -40702,7 +40680,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>41</v>
@@ -40731,7 +40709,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -40754,19 +40732,19 @@
         <v>43</v>
       </c>
       <c r="J337" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="K337" t="s" s="2">
         <v>866</v>
       </c>
-      <c r="K337" t="s" s="2">
+      <c r="L337" t="s" s="2">
         <v>867</v>
       </c>
-      <c r="L337" t="s" s="2">
+      <c r="M337" t="s" s="2">
         <v>868</v>
       </c>
-      <c r="M337" t="s" s="2">
+      <c r="N337" t="s" s="2">
         <v>869</v>
-      </c>
-      <c r="N337" t="s" s="2">
-        <v>870</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -40815,7 +40793,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>
@@ -40844,7 +40822,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -40870,14 +40848,14 @@
         <v>211</v>
       </c>
       <c r="K338" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="L338" t="s" s="2">
         <v>872</v>
-      </c>
-      <c r="L338" t="s" s="2">
-        <v>873</v>
       </c>
       <c r="M338" s="2"/>
       <c r="N338" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -40926,7 +40904,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>41</v>
@@ -40955,7 +40933,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41064,7 +41042,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41175,7 +41153,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41288,7 +41266,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -41314,14 +41292,14 @@
         <v>326</v>
       </c>
       <c r="K342" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="L342" t="s" s="2">
         <v>879</v>
-      </c>
-      <c r="L342" t="s" s="2">
-        <v>880</v>
       </c>
       <c r="M342" s="2"/>
       <c r="N342" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41370,7 +41348,7 @@
         <v>43</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>41</v>
@@ -41399,7 +41377,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41425,14 +41403,14 @@
         <v>70</v>
       </c>
       <c r="K343" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="L343" t="s" s="2">
         <v>883</v>
-      </c>
-      <c r="L343" t="s" s="2">
-        <v>884</v>
       </c>
       <c r="M343" s="2"/>
       <c r="N343" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>43</v>
@@ -41460,11 +41438,11 @@
         <v>119</v>
       </c>
       <c r="X343" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="Y343" t="s" s="2">
         <v>886</v>
       </c>
-      <c r="Y343" t="s" s="2">
-        <v>887</v>
-      </c>
       <c r="Z343" t="s" s="2">
         <v>43</v>
       </c>
@@ -41481,7 +41459,7 @@
         <v>43</v>
       </c>
       <c r="AE343" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AF343" t="s" s="2">
         <v>41</v>
@@ -41510,7 +41488,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41536,14 +41514,14 @@
         <v>52</v>
       </c>
       <c r="K344" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="L344" t="s" s="2">
         <v>889</v>
-      </c>
-      <c r="L344" t="s" s="2">
-        <v>890</v>
       </c>
       <c r="M344" s="2"/>
       <c r="N344" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="O344" t="s" s="2">
         <v>43</v>
@@ -41592,7 +41570,7 @@
         <v>43</v>
       </c>
       <c r="AE344" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AF344" t="s" s="2">
         <v>41</v>
@@ -41621,7 +41599,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -41647,16 +41625,16 @@
         <v>125</v>
       </c>
       <c r="K345" t="s" s="2">
+        <v>892</v>
+      </c>
+      <c r="L345" t="s" s="2">
         <v>893</v>
       </c>
-      <c r="L345" t="s" s="2">
+      <c r="M345" t="s" s="2">
         <v>894</v>
       </c>
-      <c r="M345" t="s" s="2">
+      <c r="N345" t="s" s="2">
         <v>895</v>
-      </c>
-      <c r="N345" t="s" s="2">
-        <v>896</v>
       </c>
       <c r="O345" t="s" s="2">
         <v>43</v>
@@ -41705,7 +41683,7 @@
         <v>43</v>
       </c>
       <c r="AE345" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AF345" t="s" s="2">
         <v>41</v>
@@ -41734,7 +41712,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -41760,16 +41738,16 @@
         <v>158</v>
       </c>
       <c r="K346" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="L346" t="s" s="2">
         <v>898</v>
       </c>
-      <c r="L346" t="s" s="2">
+      <c r="M346" t="s" s="2">
         <v>899</v>
       </c>
-      <c r="M346" t="s" s="2">
+      <c r="N346" t="s" s="2">
         <v>900</v>
-      </c>
-      <c r="N346" t="s" s="2">
-        <v>901</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>43</v>
@@ -41818,7 +41796,7 @@
         <v>43</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>41</v>
@@ -41847,7 +41825,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -41873,10 +41851,10 @@
         <v>211</v>
       </c>
       <c r="K347" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="L347" t="s" s="2">
         <v>903</v>
-      </c>
-      <c r="L347" t="s" s="2">
-        <v>904</v>
       </c>
       <c r="M347" s="2"/>
       <c r="N347" s="2"/>
@@ -41927,7 +41905,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>41</v>
@@ -41956,7 +41934,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42065,7 +42043,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42176,7 +42154,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42289,7 +42267,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42315,16 +42293,16 @@
         <v>125</v>
       </c>
       <c r="K351" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L351" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M351" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="L351" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M351" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="N351" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
@@ -42352,10 +42330,10 @@
         <v>140</v>
       </c>
       <c r="X351" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="Y351" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Z351" t="s" s="2">
         <v>43</v>
@@ -42373,7 +42351,7 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>50</v>
@@ -42402,7 +42380,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42428,14 +42406,14 @@
         <v>337</v>
       </c>
       <c r="K352" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="L352" t="s" s="2">
         <v>911</v>
-      </c>
-      <c r="L352" t="s" s="2">
-        <v>912</v>
       </c>
       <c r="M352" s="2"/>
       <c r="N352" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="O352" t="s" s="2">
         <v>43</v>
@@ -42484,7 +42462,7 @@
         <v>43</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>41</v>
@@ -42513,7 +42491,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42539,16 +42517,16 @@
         <v>52</v>
       </c>
       <c r="K353" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="L353" t="s" s="2">
         <v>915</v>
       </c>
-      <c r="L353" t="s" s="2">
+      <c r="M353" t="s" s="2">
         <v>916</v>
       </c>
-      <c r="M353" t="s" s="2">
+      <c r="N353" t="s" s="2">
         <v>917</v>
-      </c>
-      <c r="N353" t="s" s="2">
-        <v>918</v>
       </c>
       <c r="O353" t="s" s="2">
         <v>43</v>
@@ -42597,7 +42575,7 @@
         <v>43</v>
       </c>
       <c r="AE353" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AF353" t="s" s="2">
         <v>41</v>
@@ -42626,7 +42604,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -42652,16 +42630,16 @@
         <v>52</v>
       </c>
       <c r="K354" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="L354" t="s" s="2">
         <v>920</v>
       </c>
-      <c r="L354" t="s" s="2">
+      <c r="M354" t="s" s="2">
         <v>921</v>
       </c>
-      <c r="M354" t="s" s="2">
+      <c r="N354" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="N354" t="s" s="2">
-        <v>923</v>
       </c>
       <c r="O354" t="s" s="2">
         <v>43</v>
@@ -42710,7 +42688,7 @@
         <v>43</v>
       </c>
       <c r="AE354" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AF354" t="s" s="2">
         <v>41</v>
@@ -42739,7 +42717,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -42765,14 +42743,14 @@
         <v>125</v>
       </c>
       <c r="K355" t="s" s="2">
+        <v>924</v>
+      </c>
+      <c r="L355" t="s" s="2">
         <v>925</v>
-      </c>
-      <c r="L355" t="s" s="2">
-        <v>926</v>
       </c>
       <c r="M355" s="2"/>
       <c r="N355" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="O355" t="s" s="2">
         <v>43</v>
@@ -42800,11 +42778,11 @@
         <v>140</v>
       </c>
       <c r="X355" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="Y355" t="s" s="2">
         <v>928</v>
       </c>
-      <c r="Y355" t="s" s="2">
-        <v>929</v>
-      </c>
       <c r="Z355" t="s" s="2">
         <v>43</v>
       </c>
@@ -42821,7 +42799,7 @@
         <v>43</v>
       </c>
       <c r="AE355" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AF355" t="s" s="2">
         <v>41</v>
@@ -42850,7 +42828,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -42876,14 +42854,14 @@
         <v>125</v>
       </c>
       <c r="K356" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="L356" t="s" s="2">
         <v>931</v>
-      </c>
-      <c r="L356" t="s" s="2">
-        <v>932</v>
       </c>
       <c r="M356" s="2"/>
       <c r="N356" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -42911,11 +42889,11 @@
         <v>140</v>
       </c>
       <c r="X356" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="Y356" t="s" s="2">
         <v>934</v>
       </c>
-      <c r="Y356" t="s" s="2">
-        <v>935</v>
-      </c>
       <c r="Z356" t="s" s="2">
         <v>43</v>
       </c>
@@ -42932,7 +42910,7 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AF356" t="s" s="2">
         <v>41</v>
@@ -42961,7 +42939,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -42987,14 +42965,14 @@
         <v>125</v>
       </c>
       <c r="K357" t="s" s="2">
+        <v>936</v>
+      </c>
+      <c r="L357" t="s" s="2">
         <v>937</v>
-      </c>
-      <c r="L357" t="s" s="2">
-        <v>938</v>
       </c>
       <c r="M357" s="2"/>
       <c r="N357" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43022,11 +43000,11 @@
         <v>140</v>
       </c>
       <c r="X357" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="Y357" t="s" s="2">
         <v>939</v>
       </c>
-      <c r="Y357" t="s" s="2">
-        <v>940</v>
-      </c>
       <c r="Z357" t="s" s="2">
         <v>43</v>
       </c>
@@ -43043,7 +43021,7 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
@@ -43072,7 +43050,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43098,10 +43076,10 @@
         <v>211</v>
       </c>
       <c r="K358" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="L358" t="s" s="2">
         <v>942</v>
-      </c>
-      <c r="L358" t="s" s="2">
-        <v>943</v>
       </c>
       <c r="M358" s="2"/>
       <c r="N358" s="2"/>
@@ -43152,7 +43130,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43181,7 +43159,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43290,7 +43268,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
@@ -43401,7 +43379,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43514,7 +43492,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43540,16 +43518,16 @@
         <v>125</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L362" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="M362" t="s" s="2">
         <v>948</v>
       </c>
-      <c r="M362" t="s" s="2">
+      <c r="N362" t="s" s="2">
         <v>949</v>
-      </c>
-      <c r="N362" t="s" s="2">
-        <v>950</v>
       </c>
       <c r="O362" t="s" s="2">
         <v>43</v>
@@ -43577,11 +43555,11 @@
         <v>140</v>
       </c>
       <c r="X362" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="Y362" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="Y362" t="s" s="2">
-        <v>952</v>
-      </c>
       <c r="Z362" t="s" s="2">
         <v>43</v>
       </c>
@@ -43598,7 +43576,7 @@
         <v>43</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>50</v>
@@ -43627,7 +43605,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -43650,17 +43628,17 @@
         <v>43</v>
       </c>
       <c r="J363" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="K363" t="s" s="2">
         <v>954</v>
       </c>
-      <c r="K363" t="s" s="2">
+      <c r="L363" t="s" s="2">
         <v>955</v>
-      </c>
-      <c r="L363" t="s" s="2">
-        <v>956</v>
       </c>
       <c r="M363" s="2"/>
       <c r="N363" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="O363" t="s" s="2">
         <v>43</v>
@@ -43709,7 +43687,7 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AF363" t="s" s="2">
         <v>41</v>
@@ -43738,7 +43716,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -43761,17 +43739,17 @@
         <v>43</v>
       </c>
       <c r="J364" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="K364" t="s" s="2">
         <v>959</v>
       </c>
-      <c r="K364" t="s" s="2">
+      <c r="L364" t="s" s="2">
         <v>960</v>
-      </c>
-      <c r="L364" t="s" s="2">
-        <v>961</v>
       </c>
       <c r="M364" s="2"/>
       <c r="N364" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="O364" t="s" s="2">
         <v>43</v>
@@ -43820,7 +43798,7 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>41</v>
